--- a/SAM 승수 분석 양식.xlsx
+++ b/SAM 승수 분석 양식.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB9385FD-7C6D-CF47-9A80-B0F4E75F564C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33144B7E-8829-A145-8EB5-F24096B69E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38580" yWindow="-1160" windowWidth="26700" windowHeight="14940" xr2:uid="{E24E1306-3CBE-6540-A95A-C215857DD2AD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E24E1306-3CBE-6540-A95A-C215857DD2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,16 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디지털전환 전개 
-시나리오(SCN1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털전환 가속화 
-시나리오(SCN2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>산출액 
 (단위: 십억원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +72,18 @@
   </si>
   <si>
     <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털트윈 전개 
+시나리오(SCN1)
+(국비 : 13,693억원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털트윈 가속화 
+시나리오(SCN2)
+(국비 : 36,018억원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -89,6 +91,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[Red]&quot;(&quot;\ &quot;+&quot;\ #,##0.00&quot;)&quot;"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -143,18 +148,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,98 +484,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278BCE79-B710-5241-8650-5E0CA72C9ED4}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="5" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:5" ht="56" customHeight="1">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3">
+        <v>5101151.9640000006</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5104348.4767068308</v>
+      </c>
+      <c r="E3" s="3">
+        <v>5109560.0553367846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="3">
+        <v>826673.01199999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>827442.08320857713</v>
+      </c>
+      <c r="E4" s="3">
+        <v>828695.97313273523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="33" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="3">
+        <v>1175386.4639999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1176125.2080454102</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1177329.6527115754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="33" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="33" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="3">
+        <v>462297.98</v>
+      </c>
+      <c r="D6" s="4">
+        <v>462384.60335099959</v>
+      </c>
+      <c r="E6" s="3">
+        <v>462525.83363735519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="33" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="33" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3">
+        <v>564695.31200000015</v>
+      </c>
+      <c r="D7" s="3">
+        <v>564817.10750367038</v>
+      </c>
+      <c r="E7" s="3">
+        <v>565015.68229512859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="33" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3">
+        <f>SUM(C3:C7)</f>
+        <v>8130204.7319999998</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(D3:D7)</f>
+        <v>8135117.4788154876</v>
+      </c>
+      <c r="E8" s="3">
+        <f>SUM(E3:E7)</f>
+        <v>8143127.1971135791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" s="5">
+        <f>D3-C3</f>
+        <v>3196.5127068301663</v>
+      </c>
+      <c r="E11" s="5">
+        <f>E3-C3</f>
+        <v>8408.091336783953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" s="5">
+        <f t="shared" ref="D12:D16" si="0">D4-C4</f>
+        <v>769.07120857713744</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" ref="E12:E16" si="1">E4-C4</f>
+        <v>2022.9611327352468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
+        <v>738.74404541030526</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>1943.1887115754653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
+        <v>86.623350999609102</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>227.85363735520514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="5">
+        <f>D7-C7</f>
+        <v>121.7955036702333</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>320.37029512843583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>4912.7468154877424</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>12922.465113579296</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
